--- a/docs/man_tests_T1A2.xlsx
+++ b/docs/man_tests_T1A2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shelbyd/CODING/Projects/Ruby/CA_Terminal_App_RPSLS/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shelbyd/CODING/Projects/Ruby/CA_Terminal_App_RPSLS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{64BB3C18-5339-C845-958E-594672060C94}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A8B799-143C-D84A-A2CA-D53D7A8482BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38300" yWindow="-4060" windowWidth="28520" windowHeight="18000" xr2:uid="{E4B1E5C7-DAD6-3D4D-9E2A-0CE9718F5B2E}"/>
+    <workbookView xWindow="-38400" yWindow="-4060" windowWidth="28440" windowHeight="17540" xr2:uid="{E4B1E5C7-DAD6-3D4D-9E2A-0CE9718F5B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="55">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
   <si>
     <t>Feature being tested</t>
   </si>
@@ -220,6 +220,52 @@
   </si>
   <si>
     <t xml:space="preserve">Checking if the method passes and works. Result is Nil. </t>
+  </si>
+  <si>
+    <t>def test_play_again
+    puts "Would you like to play again? (y) or (n)?"
+    again = gets.chomp
+    outcome = again
+    assert_equal("y", outcome)
+    end</t>
+  </si>
+  <si>
+    <t>def test_play_again_no
+        puts "Would you like to play again? (y) or (n)?"
+        again = gets.chomp
+        outcome = again
+        assert_equal("n", outcome)
+     end</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Passed </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> def test_wrong_input
+        again = "dkfhsdkhf"
+        outcome = again
+        assert_not_equal("n", outcome)
+    end</t>
+  </si>
+  <si>
+    <t>not equal</t>
+  </si>
+  <si>
+    <t>def test_restart
+        puts "Would you like to play again? (y) or (n)?"
+        again = gets.chomp
+        case again
+          when "y"
+            return :begin
+           when "n"
+            return :end
+        end
+        assert_equal(:begin , again) 
+    end
+end</t>
+  </si>
+  <si>
+    <t>Would equal as "y' returns :begin</t>
   </si>
 </sst>
 </file>
@@ -248,7 +294,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -267,12 +313,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="2" tint="-0.249977111117893"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -286,7 +326,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -310,9 +350,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -629,10 +666,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB52CDC-51B2-5744-8C62-74681603DE00}">
-  <dimension ref="A2:J30"/>
+  <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -714,7 +751,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:10" ht="34" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>2</v>
       </c>
@@ -981,7 +1018,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="13" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:10" ht="80" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>11</v>
       </c>
@@ -991,15 +1028,26 @@
       <c r="C13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="G13" s="9"/>
+      <c r="D13" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H13" s="8">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="I13" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="14" spans="1:10" ht="32" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>12</v>
       </c>
@@ -1009,15 +1057,26 @@
       <c r="C14" s="5" t="s">
         <v>14</v>
       </c>
-      <c r="G14" s="9"/>
+      <c r="D14" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G14" s="6" t="s">
+        <v>32</v>
+      </c>
       <c r="H14" s="8">
-        <v>43947</v>
+        <v>43948</v>
       </c>
       <c r="I14" s="4" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="15" spans="1:10" ht="48" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:10" ht="96" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>13</v>
       </c>
@@ -1025,42 +1084,82 @@
         <v>46</v>
       </c>
       <c r="C15" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="8">
+        <v>43948</v>
+      </c>
+      <c r="I15" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="204" x14ac:dyDescent="0.2">
+      <c r="A16" s="4">
+        <v>13</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="C16" s="5" t="s">
         <v>15</v>
       </c>
-      <c r="G15" s="9"/>
-      <c r="H15" s="8">
-        <v>43947</v>
-      </c>
-      <c r="I15" s="4" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" ht="48" x14ac:dyDescent="0.2">
-      <c r="A30" s="4">
+      <c r="D16" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G16" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H16" s="8">
+        <v>43948</v>
+      </c>
+      <c r="I16" s="4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+      <c r="A31" s="4">
         <v>7</v>
       </c>
-      <c r="B30" s="5" t="s">
+      <c r="B31" s="5" t="s">
         <v>33</v>
       </c>
-      <c r="C30" s="5" t="s">
+      <c r="C31" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="D30" s="5" t="s">
+      <c r="D31" s="5" t="s">
         <v>35</v>
       </c>
-      <c r="E30" s="5" t="s">
+      <c r="E31" s="5" t="s">
         <v>36</v>
       </c>
-      <c r="F30" s="5" t="s">
-        <v>18</v>
-      </c>
-      <c r="G30" s="6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H30" s="8">
+      <c r="F31" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" s="6" t="s">
+        <v>32</v>
+      </c>
+      <c r="H31" s="8">
         <v>43944</v>
       </c>
-      <c r="I30" s="4" t="s">
+      <c r="I31" s="4" t="s">
         <v>19</v>
       </c>
     </row>

--- a/docs/man_tests_T1A2.xlsx
+++ b/docs/man_tests_T1A2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/shelbyd/CODING/Projects/Ruby/CA_Terminal_App_RPSLS/docs/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A8A8B799-143C-D84A-A2CA-D53D7A8482BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD1BC44F-3761-A145-B8CA-138E48C315D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38400" yWindow="-4060" windowWidth="28440" windowHeight="17540" xr2:uid="{E4B1E5C7-DAD6-3D4D-9E2A-0CE9718F5B2E}"/>
+    <workbookView xWindow="-36720" yWindow="-4060" windowWidth="28440" windowHeight="17540" xr2:uid="{E4B1E5C7-DAD6-3D4D-9E2A-0CE9718F5B2E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="64">
   <si>
     <t>Feature being tested</t>
   </si>
@@ -266,6 +266,12 @@
   </si>
   <si>
     <t>Would equal as "y' returns :begin</t>
+  </si>
+  <si>
+    <t>This test was archived for now as the score board (seperated class)  feature is benched.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Discontinued </t>
   </si>
 </sst>
 </file>
@@ -294,7 +300,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -313,6 +319,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -326,7 +338,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -350,6 +362,9 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -668,8 +683,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FDB52CDC-51B2-5744-8C62-74681603DE00}">
   <dimension ref="A2:J31"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="73" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1134,7 +1149,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="31" spans="1:9" ht="48" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:10" ht="64" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>7</v>
       </c>
@@ -1153,14 +1168,17 @@
       <c r="F31" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="G31" s="6" t="s">
-        <v>32</v>
+      <c r="G31" s="9" t="s">
+        <v>63</v>
       </c>
       <c r="H31" s="8">
         <v>43944</v>
       </c>
       <c r="I31" s="4" t="s">
         <v>19</v>
+      </c>
+      <c r="J31" s="4" t="s">
+        <v>62</v>
       </c>
     </row>
   </sheetData>
